--- a/docs/data-cleaning-requests/university-police-actions/university_police_actions_all.xlsx
+++ b/docs/data-cleaning-requests/university-police-actions/university_police_actions_all.xlsx
@@ -417,7 +417,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7">
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9">
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="11">
@@ -473,11 +473,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of events with both any university response coding and any police coding</t>
+          <t>Number of events with either any university response coding or any police coding</t>
         </is>
       </c>
       <c r="B12">
-        <v>2153</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="13">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>3298</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="14">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>5451</v>
+        <v>5560</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         <v>55</v>
       </c>
       <c r="E2">
-        <v>0.01008989176297927</v>
+        <v>0.009892086330935251</v>
       </c>
     </row>
     <row r="3">
@@ -583,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.000366905155017428</v>
+        <v>0.0003597122302158273</v>
       </c>
     </row>
     <row r="4">
@@ -606,7 +606,7 @@
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.0300862227114291</v>
+        <v>0.02949640287769784</v>
       </c>
     </row>
     <row r="5">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>0.004219409282700422</v>
+        <v>0.004136690647482014</v>
       </c>
     </row>
     <row r="6">
@@ -652,7 +652,7 @@
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.03045312786644652</v>
+        <v>0.02985611510791367</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>0.002568336085121996</v>
+        <v>0.002517985611510791</v>
       </c>
     </row>
     <row r="8">
@@ -698,7 +698,7 @@
         <v>48</v>
       </c>
       <c r="E8">
-        <v>0.008805723720418272</v>
+        <v>0.008633093525179856</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>0.00091726288754357</v>
+        <v>0.0008992805755395684</v>
       </c>
     </row>
     <row r="10">
@@ -744,7 +744,7 @@
         <v>61</v>
       </c>
       <c r="E10">
-        <v>0.01119060722803155</v>
+        <v>0.01097122302158273</v>
       </c>
     </row>
     <row r="11">
@@ -767,7 +767,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <v>0.005136672170243992</v>
+        <v>0.005035971223021582</v>
       </c>
     </row>
     <row r="12">
@@ -790,7 +790,7 @@
         <v>58</v>
       </c>
       <c r="E12">
-        <v>0.01064024949550541</v>
+        <v>0.01043165467625899</v>
       </c>
     </row>
     <row r="13">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>0.004769767015226564</v>
+        <v>0.004676258992805755</v>
       </c>
     </row>
     <row r="14">
@@ -836,7 +836,7 @@
         <v>105</v>
       </c>
       <c r="E14">
-        <v>0.01926252063841497</v>
+        <v>0.01888489208633094</v>
       </c>
     </row>
     <row r="15">
@@ -859,7 +859,7 @@
         <v>182</v>
       </c>
       <c r="E15">
-        <v>0.03338836910658595</v>
+        <v>0.03273381294964029</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>412</v>
       </c>
       <c r="E16">
-        <v>0.07558246193359017</v>
+        <v>0.07410071942446043</v>
       </c>
     </row>
     <row r="17">
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>0.001100715465052284</v>
+        <v>0.001079136690647482</v>
       </c>
     </row>
     <row r="18">
@@ -928,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>0.004953219592735278</v>
+        <v>0.004856115107913669</v>
       </c>
     </row>
     <row r="19">
@@ -951,7 +951,7 @@
         <v>65</v>
       </c>
       <c r="E19">
-        <v>0.01192441753806641</v>
+        <v>0.01169064748201439</v>
       </c>
     </row>
     <row r="20">
@@ -974,7 +974,7 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>0.006053935057787562</v>
+        <v>0.005935251798561151</v>
       </c>
     </row>
     <row r="21">
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="E21">
-        <v>0.003118693817648138</v>
+        <v>0.003057553956834532</v>
       </c>
     </row>
     <row r="22">
@@ -1020,7 +1020,7 @@
         <v>89</v>
       </c>
       <c r="E22">
-        <v>0.01632727939827554</v>
+        <v>0.01600719424460431</v>
       </c>
     </row>
     <row r="23">
@@ -1043,7 +1043,7 @@
         <v>295</v>
       </c>
       <c r="E23">
-        <v>0.05411851036507063</v>
+        <v>0.05305755395683454</v>
       </c>
     </row>
     <row r="24">
@@ -1066,7 +1066,7 @@
         <v>54</v>
       </c>
       <c r="E24">
-        <v>0.009906439185470555</v>
+        <v>0.009712230215827337</v>
       </c>
     </row>
     <row r="25">
@@ -1089,7 +1089,7 @@
         <v>79</v>
       </c>
       <c r="E25">
-        <v>0.01449275362318841</v>
+        <v>0.01420863309352518</v>
       </c>
     </row>
     <row r="26">
@@ -1112,7 +1112,7 @@
         <v>70</v>
       </c>
       <c r="E26">
-        <v>0.01284168042560998</v>
+        <v>0.01258992805755396</v>
       </c>
     </row>
     <row r="27">
@@ -1135,7 +1135,7 @@
         <v>302</v>
       </c>
       <c r="E27">
-        <v>0.05540267840763163</v>
+        <v>0.05431654676258993</v>
       </c>
     </row>
     <row r="28">
@@ -1158,7 +1158,7 @@
         <v>137</v>
       </c>
       <c r="E28">
-        <v>0.02513300311869382</v>
+        <v>0.02464028776978417</v>
       </c>
     </row>
     <row r="29">
@@ -1181,7 +1181,7 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <v>0.005136672170243992</v>
+        <v>0.005035971223021582</v>
       </c>
     </row>
     <row r="30">
@@ -1204,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>0.000550357732526142</v>
+        <v>0.000539568345323741</v>
       </c>
     </row>
     <row r="31">
@@ -1227,7 +1227,7 @@
         <v>466</v>
       </c>
       <c r="E31">
-        <v>0.08548890111906073</v>
+        <v>0.08381294964028776</v>
       </c>
     </row>
     <row r="32">
@@ -1250,7 +1250,7 @@
         <v>146</v>
       </c>
       <c r="E32">
-        <v>0.02678407631627224</v>
+        <v>0.02625899280575539</v>
       </c>
     </row>
     <row r="33">
@@ -1270,10 +1270,10 @@
         </is>
       </c>
       <c r="D33">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E33">
-        <v>0.07099614749587231</v>
+        <v>0.07014388489208633</v>
       </c>
     </row>
     <row r="34">
@@ -1296,7 +1296,7 @@
         <v>23</v>
       </c>
       <c r="E34">
-        <v>0.004219409282700422</v>
+        <v>0.004136690647482014</v>
       </c>
     </row>
     <row r="35">
@@ -1319,7 +1319,7 @@
         <v>47</v>
       </c>
       <c r="E35">
-        <v>0.008622271142909558</v>
+        <v>0.008453237410071942</v>
       </c>
     </row>
     <row r="36">
@@ -1342,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="E36">
-        <v>0.00458631443771785</v>
+        <v>0.004496402877697842</v>
       </c>
     </row>
     <row r="37">
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="E37">
-        <v>0.001284168042560998</v>
+        <v>0.001258992805755396</v>
       </c>
     </row>
     <row r="38">
@@ -1388,7 +1388,7 @@
         <v>83</v>
       </c>
       <c r="E38">
-        <v>0.01522656393322326</v>
+        <v>0.01492805755395684</v>
       </c>
     </row>
     <row r="39">
@@ -1411,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="E39">
-        <v>0.006604292790313704</v>
+        <v>0.006474820143884892</v>
       </c>
     </row>
     <row r="40">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E40">
-        <v>0.01008989176297927</v>
+        <v>0.01007194244604316</v>
       </c>
     </row>
     <row r="41">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="D41">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41">
-        <v>0.03320491652907723</v>
+        <v>0.03273381294964029</v>
       </c>
     </row>
     <row r="42">
@@ -1480,7 +1480,7 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <v>0.001284168042560998</v>
+        <v>0.001258992805755396</v>
       </c>
     </row>
     <row r="43">
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="E43">
-        <v>0.000733810310034856</v>
+        <v>0.0007194244604316547</v>
       </c>
     </row>
     <row r="44">
@@ -1526,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>0.002568336085121996</v>
+        <v>0.002517985611510791</v>
       </c>
     </row>
     <row r="45">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45">
-        <v>0.01632727939827554</v>
+        <v>0.01618705035971223</v>
       </c>
     </row>
     <row r="46">
@@ -1572,7 +1572,7 @@
         <v>20</v>
       </c>
       <c r="E46">
-        <v>0.00366905155017428</v>
+        <v>0.003597122302158274</v>
       </c>
     </row>
     <row r="47">
@@ -1595,7 +1595,7 @@
         <v>99</v>
       </c>
       <c r="E47">
-        <v>0.01816180517336268</v>
+        <v>0.01780575539568345</v>
       </c>
     </row>
     <row r="48">
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="D48">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48">
-        <v>0.01375894331315355</v>
+        <v>0.01384892086330935</v>
       </c>
     </row>
     <row r="49">
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="E49">
-        <v>0.01082370207301413</v>
+        <v>0.01061151079136691</v>
       </c>
     </row>
     <row r="50">
@@ -1664,7 +1664,7 @@
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.004953219592735278</v>
+        <v>0.004856115107913669</v>
       </c>
     </row>
     <row r="51">
@@ -1687,7 +1687,7 @@
         <v>46</v>
       </c>
       <c r="E51">
-        <v>0.008438818565400843</v>
+        <v>0.008273381294964029</v>
       </c>
     </row>
     <row r="52">
@@ -1710,7 +1710,7 @@
         <v>495</v>
       </c>
       <c r="E52">
-        <v>0.09080902586681343</v>
+        <v>0.08902877697841727</v>
       </c>
     </row>
     <row r="53">
@@ -1733,7 +1733,7 @@
         <v>326</v>
       </c>
       <c r="E53">
-        <v>0.05980554026784076</v>
+        <v>0.05863309352517986</v>
       </c>
     </row>
     <row r="54">
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="D54">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E54">
-        <v>0.06182351862043662</v>
+        <v>0.06079136690647482</v>
       </c>
     </row>
     <row r="55">
@@ -1779,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.004953219592735278</v>
+        <v>0.004856115107913669</v>
       </c>
     </row>
     <row r="56">
@@ -1802,7 +1802,7 @@
         <v>31</v>
       </c>
       <c r="E56">
-        <v>0.005687029902770134</v>
+        <v>0.005575539568345324</v>
       </c>
     </row>
     <row r="57">
@@ -1825,7 +1825,7 @@
         <v>197</v>
       </c>
       <c r="E57">
-        <v>0.03614015776921665</v>
+        <v>0.03543165467625899</v>
       </c>
     </row>
     <row r="58">
@@ -1848,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.000550357732526142</v>
+        <v>0.000539568345323741</v>
       </c>
     </row>
     <row r="59">
@@ -1871,7 +1871,7 @@
         <v>143</v>
       </c>
       <c r="E59">
-        <v>0.0262337185837461</v>
+        <v>0.02571942446043166</v>
       </c>
     </row>
     <row r="60">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="E60">
-        <v>0.006420840212804989</v>
+        <v>0.006294964028776978</v>
       </c>
     </row>
     <row r="61">
@@ -1917,7 +1917,7 @@
         <v>85</v>
       </c>
       <c r="E61">
-        <v>0.01559346908824069</v>
+        <v>0.01528776978417266</v>
       </c>
     </row>
     <row r="62">
@@ -1940,7 +1940,7 @@
         <v>185</v>
       </c>
       <c r="E62">
-        <v>0.03393872683911209</v>
+        <v>0.03327338129496403</v>
       </c>
     </row>
     <row r="63">
@@ -1963,7 +1963,7 @@
         <v>90</v>
       </c>
       <c r="E63">
-        <v>0.01651073197578426</v>
+        <v>0.01618705035971223</v>
       </c>
     </row>
     <row r="64">
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="E64">
-        <v>0.002384883507613282</v>
+        <v>0.002338129496402878</v>
       </c>
     </row>
     <row r="65">
@@ -2006,10 +2006,10 @@
         </is>
       </c>
       <c r="D65">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65">
-        <v>0.01596037424325812</v>
+        <v>0.0158273381294964</v>
       </c>
     </row>
     <row r="66">
@@ -2032,7 +2032,7 @@
         <v>198</v>
       </c>
       <c r="E66">
-        <v>0.03632361034672537</v>
+        <v>0.03561151079136691</v>
       </c>
     </row>
     <row r="67">
@@ -2055,7 +2055,7 @@
         <v>69</v>
       </c>
       <c r="E67">
-        <v>0.01265822784810127</v>
+        <v>0.01241007194244604</v>
       </c>
     </row>
     <row r="68">
@@ -2078,7 +2078,7 @@
         <v>33</v>
       </c>
       <c r="E68">
-        <v>0.006053935057787562</v>
+        <v>0.005935251798561151</v>
       </c>
     </row>
     <row r="69">
@@ -2098,10 +2098,10 @@
         </is>
       </c>
       <c r="D69">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E69">
-        <v>0.03393872683911209</v>
+        <v>0.03345323741007195</v>
       </c>
     </row>
     <row r="70">
@@ -2124,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="E70">
-        <v>0.001651073197578426</v>
+        <v>0.001618705035971223</v>
       </c>
     </row>
     <row r="71">
@@ -2147,7 +2147,7 @@
         <v>184</v>
       </c>
       <c r="E71">
-        <v>0.03375527426160337</v>
+        <v>0.03309352517985611</v>
       </c>
     </row>
     <row r="72">
@@ -2170,7 +2170,7 @@
         <v>115</v>
       </c>
       <c r="E72">
-        <v>0.02109704641350211</v>
+        <v>0.02068345323741007</v>
       </c>
     </row>
     <row r="73">
@@ -2193,7 +2193,7 @@
         <v>191</v>
       </c>
       <c r="E73">
-        <v>0.03503944230416437</v>
+        <v>0.03435251798561151</v>
       </c>
     </row>
     <row r="74">
@@ -2216,7 +2216,7 @@
         <v>286</v>
       </c>
       <c r="E74">
-        <v>0.05246743716749221</v>
+        <v>0.05143884892086331</v>
       </c>
     </row>
     <row r="75">
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="E75">
-        <v>0.00550357732526142</v>
+        <v>0.00539568345323741</v>
       </c>
     </row>
     <row r="76">
@@ -2262,7 +2262,7 @@
         <v>114</v>
       </c>
       <c r="E76">
-        <v>0.0209135938359934</v>
+        <v>0.02050359712230216</v>
       </c>
     </row>
     <row r="77">
@@ -2285,7 +2285,7 @@
         <v>47</v>
       </c>
       <c r="E77">
-        <v>0.008622271142909558</v>
+        <v>0.008453237410071942</v>
       </c>
     </row>
     <row r="78">
@@ -2308,7 +2308,7 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>0.000550357732526142</v>
+        <v>0.000539568345323741</v>
       </c>
     </row>
     <row r="79">
@@ -2331,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="E79">
-        <v>0.004035956705191708</v>
+        <v>0.003956834532374101</v>
       </c>
     </row>
     <row r="80">
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="D80">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E80">
-        <v>0.005870482480278848</v>
+        <v>0.005935251798561151</v>
       </c>
     </row>
     <row r="81">
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>5451</v>
+        <v>5560</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data-cleaning-requests/university-police-actions/university_police_actions_all.xlsx
+++ b/docs/data-cleaning-requests/university-police-actions/university_police_actions_all.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,20 +483,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Number of events with neither university response nor police coding</t>
+          <t>Number of events with both any university response coding and any police coding</t>
         </is>
       </c>
       <c r="B13">
-        <v>3299</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Number of events with neither university response nor police coding</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Total number of protests</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>5560</v>
       </c>
     </row>
